--- a/data/download_SH510500.xlsx
+++ b/data/download_SH510500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2899"/>
+  <dimension ref="A1:F2900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70017,6 +70017,30 @@
         <v>5.939</v>
       </c>
     </row>
+    <row r="2900">
+      <c r="A2900" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B2900" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2900" t="n">
+        <v>6.036</v>
+      </c>
+      <c r="D2900" t="n">
+        <v>6.048</v>
+      </c>
+      <c r="E2900" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F2900" t="n">
+        <v>5.999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510500.xlsx
+++ b/data/download_SH510500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2900"/>
+  <dimension ref="A1:F2904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70041,6 +70041,102 @@
         <v>5.999</v>
       </c>
     </row>
+    <row r="2901">
+      <c r="A2901" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B2901" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2901" t="n">
+        <v>5.973</v>
+      </c>
+      <c r="D2901" t="n">
+        <v>5.987</v>
+      </c>
+      <c r="E2901" t="n">
+        <v>6.035</v>
+      </c>
+      <c r="F2901" t="n">
+        <v>5.955</v>
+      </c>
+    </row>
+    <row r="2902">
+      <c r="A2902" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B2902" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2902" t="n">
+        <v>6.045</v>
+      </c>
+      <c r="D2902" t="n">
+        <v>5.987</v>
+      </c>
+      <c r="E2902" t="n">
+        <v>6.056</v>
+      </c>
+      <c r="F2902" t="n">
+        <v>5.965</v>
+      </c>
+    </row>
+    <row r="2903">
+      <c r="A2903" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B2903" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2903" t="n">
+        <v>6.029</v>
+      </c>
+      <c r="D2903" t="n">
+        <v>6.034</v>
+      </c>
+      <c r="E2903" t="n">
+        <v>6.058</v>
+      </c>
+      <c r="F2903" t="n">
+        <v>5.939</v>
+      </c>
+    </row>
+    <row r="2904">
+      <c r="A2904" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B2904" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2904" t="n">
+        <v>5.906</v>
+      </c>
+      <c r="D2904" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="E2904" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2904" t="n">
+        <v>5.902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510500.xlsx
+++ b/data/download_SH510500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2904"/>
+  <dimension ref="A1:F2905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70125,7 +70125,7 @@
         </is>
       </c>
       <c r="C2904" t="n">
-        <v>5.906</v>
+        <v>5.867</v>
       </c>
       <c r="D2904" t="n">
         <v>5.991</v>
@@ -70134,7 +70134,31 @@
         <v>6</v>
       </c>
       <c r="F2904" t="n">
-        <v>5.902</v>
+        <v>5.847</v>
+      </c>
+    </row>
+    <row r="2905">
+      <c r="A2905" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B2905" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2905" t="n">
+        <v>5.955</v>
+      </c>
+      <c r="D2905" t="n">
+        <v>5.867</v>
+      </c>
+      <c r="E2905" t="n">
+        <v>5.956</v>
+      </c>
+      <c r="F2905" t="n">
+        <v>5.851</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH510500.xlsx
+++ b/data/download_SH510500.xlsx
@@ -70149,13 +70149,13 @@
         </is>
       </c>
       <c r="C2905" t="n">
-        <v>5.955</v>
+        <v>5.877</v>
       </c>
       <c r="D2905" t="n">
         <v>5.867</v>
       </c>
       <c r="E2905" t="n">
-        <v>5.956</v>
+        <v>5.964</v>
       </c>
       <c r="F2905" t="n">
         <v>5.851</v>

--- a/data/download_SH510500.xlsx
+++ b/data/download_SH510500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2905"/>
+  <dimension ref="A1:F2941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70161,6 +70161,870 @@
         <v>5.851</v>
       </c>
     </row>
+    <row r="2906">
+      <c r="A2906" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B2906" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2906" t="n">
+        <v>5.929</v>
+      </c>
+      <c r="D2906" t="n">
+        <v>5.839</v>
+      </c>
+      <c r="E2906" t="n">
+        <v>5.944</v>
+      </c>
+      <c r="F2906" t="n">
+        <v>5.832</v>
+      </c>
+    </row>
+    <row r="2907">
+      <c r="A2907" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B2907" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2907" t="n">
+        <v>5.944</v>
+      </c>
+      <c r="D2907" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="E2907" t="n">
+        <v>5.954</v>
+      </c>
+      <c r="F2907" t="n">
+        <v>5.881</v>
+      </c>
+    </row>
+    <row r="2908">
+      <c r="A2908" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B2908" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2908" t="n">
+        <v>6.039</v>
+      </c>
+      <c r="D2908" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E2908" t="n">
+        <v>6.065</v>
+      </c>
+      <c r="F2908" t="n">
+        <v>5.966</v>
+      </c>
+    </row>
+    <row r="2909">
+      <c r="A2909" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B2909" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2909" t="n">
+        <v>6.013</v>
+      </c>
+      <c r="D2909" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="E2909" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F2909" t="n">
+        <v>5.987</v>
+      </c>
+    </row>
+    <row r="2910">
+      <c r="A2910" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B2910" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2910" t="n">
+        <v>6.006</v>
+      </c>
+      <c r="D2910" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="E2910" t="n">
+        <v>6.031</v>
+      </c>
+      <c r="F2910" t="n">
+        <v>5.961</v>
+      </c>
+    </row>
+    <row r="2911">
+      <c r="A2911" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B2911" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2911" t="n">
+        <v>6.036</v>
+      </c>
+      <c r="D2911" t="n">
+        <v>5.946</v>
+      </c>
+      <c r="E2911" t="n">
+        <v>6.039</v>
+      </c>
+      <c r="F2911" t="n">
+        <v>5.943</v>
+      </c>
+    </row>
+    <row r="2912">
+      <c r="A2912" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B2912" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2912" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D2912" t="n">
+        <v>6.049</v>
+      </c>
+      <c r="E2912" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="F2912" t="n">
+        <v>6.031</v>
+      </c>
+    </row>
+    <row r="2913">
+      <c r="A2913" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B2913" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2913" t="n">
+        <v>5.989</v>
+      </c>
+      <c r="D2913" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E2913" t="n">
+        <v>6.048</v>
+      </c>
+      <c r="F2913" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="2914">
+      <c r="A2914" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B2914" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2914" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="D2914" t="n">
+        <v>5.992</v>
+      </c>
+      <c r="E2914" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F2914" t="n">
+        <v>5.972</v>
+      </c>
+    </row>
+    <row r="2915">
+      <c r="A2915" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B2915" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2915" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D2915" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E2915" t="n">
+        <v>6.121</v>
+      </c>
+      <c r="F2915" t="n">
+        <v>6.087</v>
+      </c>
+    </row>
+    <row r="2916">
+      <c r="A2916" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B2916" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2916" t="n">
+        <v>6.126</v>
+      </c>
+      <c r="D2916" t="n">
+        <v>6.112</v>
+      </c>
+      <c r="E2916" t="n">
+        <v>6.166</v>
+      </c>
+      <c r="F2916" t="n">
+        <v>6.108</v>
+      </c>
+    </row>
+    <row r="2917">
+      <c r="A2917" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B2917" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2917" t="n">
+        <v>6.102</v>
+      </c>
+      <c r="D2917" t="n">
+        <v>6.115</v>
+      </c>
+      <c r="E2917" t="n">
+        <v>6.126</v>
+      </c>
+      <c r="F2917" t="n">
+        <v>6.068</v>
+      </c>
+    </row>
+    <row r="2918">
+      <c r="A2918" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B2918" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2918" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D2918" t="n">
+        <v>6.099</v>
+      </c>
+      <c r="E2918" t="n">
+        <v>6.105</v>
+      </c>
+      <c r="F2918" t="n">
+        <v>6.055</v>
+      </c>
+    </row>
+    <row r="2919">
+      <c r="A2919" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B2919" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2919" t="n">
+        <v>5.968</v>
+      </c>
+      <c r="D2919" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="E2919" t="n">
+        <v>6.066</v>
+      </c>
+      <c r="F2919" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="2920">
+      <c r="A2920" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B2920" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2920" t="n">
+        <v>5.961</v>
+      </c>
+      <c r="D2920" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E2920" t="n">
+        <v>5.979</v>
+      </c>
+      <c r="F2920" t="n">
+        <v>5.883</v>
+      </c>
+    </row>
+    <row r="2921">
+      <c r="A2921" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B2921" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2921" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="D2921" t="n">
+        <v>5.957</v>
+      </c>
+      <c r="E2921" t="n">
+        <v>5.984</v>
+      </c>
+      <c r="F2921" t="n">
+        <v>5.921</v>
+      </c>
+    </row>
+    <row r="2922">
+      <c r="A2922" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B2922" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2922" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="D2922" t="n">
+        <v>5.933</v>
+      </c>
+      <c r="E2922" t="n">
+        <v>5.983</v>
+      </c>
+      <c r="F2922" t="n">
+        <v>5.933</v>
+      </c>
+    </row>
+    <row r="2923">
+      <c r="A2923" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B2923" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2923" t="n">
+        <v>5.956</v>
+      </c>
+      <c r="D2923" t="n">
+        <v>5.937</v>
+      </c>
+      <c r="E2923" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2923" t="n">
+        <v>5.884</v>
+      </c>
+    </row>
+    <row r="2924">
+      <c r="A2924" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B2924" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2924" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="D2924" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="E2924" t="n">
+        <v>5.972</v>
+      </c>
+      <c r="F2924" t="n">
+        <v>5.897</v>
+      </c>
+    </row>
+    <row r="2925">
+      <c r="A2925" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B2925" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2925" t="n">
+        <v>5.854</v>
+      </c>
+      <c r="D2925" t="n">
+        <v>5.881</v>
+      </c>
+      <c r="E2925" t="n">
+        <v>5.908</v>
+      </c>
+      <c r="F2925" t="n">
+        <v>5.796</v>
+      </c>
+    </row>
+    <row r="2926">
+      <c r="A2926" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B2926" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2926" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="D2926" t="n">
+        <v>5.864</v>
+      </c>
+      <c r="E2926" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F2926" t="n">
+        <v>5.859</v>
+      </c>
+    </row>
+    <row r="2927">
+      <c r="A2927" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B2927" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2927" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="D2927" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="E2927" t="n">
+        <v>5.938</v>
+      </c>
+      <c r="F2927" t="n">
+        <v>5.869</v>
+      </c>
+    </row>
+    <row r="2928">
+      <c r="A2928" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B2928" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2928" t="n">
+        <v>5.842</v>
+      </c>
+      <c r="D2928" t="n">
+        <v>5.845</v>
+      </c>
+      <c r="E2928" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="F2928" t="n">
+        <v>5.816</v>
+      </c>
+    </row>
+    <row r="2929">
+      <c r="A2929" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B2929" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2929" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="D2929" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E2929" t="n">
+        <v>5.662</v>
+      </c>
+      <c r="F2929" t="n">
+        <v>5.258</v>
+      </c>
+    </row>
+    <row r="2930">
+      <c r="A2930" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B2930" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2930" t="n">
+        <v>5.313</v>
+      </c>
+      <c r="D2930" t="n">
+        <v>5.312</v>
+      </c>
+      <c r="E2930" t="n">
+        <v>5.371</v>
+      </c>
+      <c r="F2930" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="2931">
+      <c r="A2931" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B2931" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2931" t="n">
+        <v>5.428</v>
+      </c>
+      <c r="D2931" t="n">
+        <v>5.255</v>
+      </c>
+      <c r="E2931" t="n">
+        <v>5.457</v>
+      </c>
+      <c r="F2931" t="n">
+        <v>5.139</v>
+      </c>
+    </row>
+    <row r="2932">
+      <c r="A2932" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B2932" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2932" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="D2932" t="n">
+        <v>5.503</v>
+      </c>
+      <c r="E2932" t="n">
+        <v>5.609</v>
+      </c>
+      <c r="F2932" t="n">
+        <v>5.501</v>
+      </c>
+    </row>
+    <row r="2933">
+      <c r="A2933" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B2933" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2933" t="n">
+        <v>5.573</v>
+      </c>
+      <c r="D2933" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="E2933" t="n">
+        <v>5.628</v>
+      </c>
+      <c r="F2933" t="n">
+        <v>5.509</v>
+      </c>
+    </row>
+    <row r="2934">
+      <c r="A2934" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B2934" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2934" t="n">
+        <v>5.617</v>
+      </c>
+      <c r="D2934" t="n">
+        <v>5.615</v>
+      </c>
+      <c r="E2934" t="n">
+        <v>5.652</v>
+      </c>
+      <c r="F2934" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="2935">
+      <c r="A2935" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B2935" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2935" t="n">
+        <v>5.594</v>
+      </c>
+      <c r="D2935" t="n">
+        <v>5.615</v>
+      </c>
+      <c r="E2935" t="n">
+        <v>5.619</v>
+      </c>
+      <c r="F2935" t="n">
+        <v>5.562</v>
+      </c>
+    </row>
+    <row r="2936">
+      <c r="A2936" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B2936" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2936" t="n">
+        <v>5.545</v>
+      </c>
+      <c r="D2936" t="n">
+        <v>5.558</v>
+      </c>
+      <c r="E2936" t="n">
+        <v>5.581</v>
+      </c>
+      <c r="F2936" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="2937">
+      <c r="A2937" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B2937" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2937" t="n">
+        <v>5.548</v>
+      </c>
+      <c r="D2937" t="n">
+        <v>5.524</v>
+      </c>
+      <c r="E2937" t="n">
+        <v>5.603</v>
+      </c>
+      <c r="F2937" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="2938">
+      <c r="A2938" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B2938" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2938" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="D2938" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E2938" t="n">
+        <v>5.576</v>
+      </c>
+      <c r="F2938" t="n">
+        <v>5.519</v>
+      </c>
+    </row>
+    <row r="2939">
+      <c r="A2939" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B2939" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2939" t="n">
+        <v>5.632</v>
+      </c>
+      <c r="D2939" t="n">
+        <v>5.544</v>
+      </c>
+      <c r="E2939" t="n">
+        <v>5.641</v>
+      </c>
+      <c r="F2939" t="n">
+        <v>5.522</v>
+      </c>
+    </row>
+    <row r="2940">
+      <c r="A2940" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B2940" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2940" t="n">
+        <v>5.617</v>
+      </c>
+      <c r="D2940" t="n">
+        <v>5.619</v>
+      </c>
+      <c r="E2940" t="n">
+        <v>5.645</v>
+      </c>
+      <c r="F2940" t="n">
+        <v>5.607</v>
+      </c>
+    </row>
+    <row r="2941">
+      <c r="A2941" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B2941" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2941" t="n">
+        <v>5.628</v>
+      </c>
+      <c r="D2941" t="n">
+        <v>5.639</v>
+      </c>
+      <c r="E2941" t="n">
+        <v>5.683</v>
+      </c>
+      <c r="F2941" t="n">
+        <v>5.608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510500.xlsx
+++ b/data/download_SH510500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2941"/>
+  <dimension ref="A1:F2943"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71025,6 +71025,54 @@
         <v>5.608</v>
       </c>
     </row>
+    <row r="2942">
+      <c r="A2942" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B2942" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2942" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="D2942" t="n">
+        <v>5.628</v>
+      </c>
+      <c r="E2942" t="n">
+        <v>5.644</v>
+      </c>
+      <c r="F2942" t="n">
+        <v>5.577</v>
+      </c>
+    </row>
+    <row r="2943">
+      <c r="A2943" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B2943" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2943" t="n">
+        <v>5.621</v>
+      </c>
+      <c r="D2943" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="E2943" t="n">
+        <v>5.662</v>
+      </c>
+      <c r="F2943" t="n">
+        <v>5.592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH510500.xlsx
+++ b/data/download_SH510500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2943"/>
+  <dimension ref="A1:F2948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71073,6 +71073,126 @@
         <v>5.592</v>
       </c>
     </row>
+    <row r="2944">
+      <c r="A2944" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B2944" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2944" t="n">
+        <v>5.595</v>
+      </c>
+      <c r="D2944" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="E2944" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="F2944" t="n">
+        <v>5.576</v>
+      </c>
+    </row>
+    <row r="2945">
+      <c r="A2945" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B2945" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2945" t="n">
+        <v>5.598</v>
+      </c>
+      <c r="D2945" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="E2945" t="n">
+        <v>5.622</v>
+      </c>
+      <c r="F2945" t="n">
+        <v>5.564</v>
+      </c>
+    </row>
+    <row r="2946">
+      <c r="A2946" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B2946" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2946" t="n">
+        <v>5.626</v>
+      </c>
+      <c r="D2946" t="n">
+        <v>5.598</v>
+      </c>
+      <c r="E2946" t="n">
+        <v>5.642</v>
+      </c>
+      <c r="F2946" t="n">
+        <v>5.597</v>
+      </c>
+    </row>
+    <row r="2947">
+      <c r="A2947" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B2947" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2947" t="n">
+        <v>5.733</v>
+      </c>
+      <c r="D2947" t="n">
+        <v>5.655</v>
+      </c>
+      <c r="E2947" t="n">
+        <v>5.735</v>
+      </c>
+      <c r="F2947" t="n">
+        <v>5.653</v>
+      </c>
+    </row>
+    <row r="2948">
+      <c r="A2948" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>SH510500</t>
+        </is>
+      </c>
+      <c r="C2948" t="n">
+        <v>5.743</v>
+      </c>
+      <c r="D2948" t="n">
+        <v>5.798</v>
+      </c>
+      <c r="E2948" t="n">
+        <v>5.845</v>
+      </c>
+      <c r="F2948" t="n">
+        <v>5.708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
